--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3117117.567563685</v>
+        <v>3112815.405667218</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663201</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368128</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21.45987517072724</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>104.881441273315</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714234</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>67.30006071913175</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845758</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>20.90758896841937</v>
+        <v>74.58437257147916</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537563</v>
+        <v>349.2299344537567</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>175.2986406965978</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.2299344537563</v>
+        <v>288.1874442843764</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>349.2299344537567</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>349.2299344537567</v>
       </c>
     </row>
     <row r="6">
@@ -977,22 +977,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8643785804277</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277714</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.3214930216119</v>
       </c>
       <c r="S6" t="n">
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>100.1358350636471</v>
+        <v>70.36307529253597</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>118.1584857285476</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057145</v>
+        <v>5.686931024057088</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2513897146553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>72.92107662520414</v>
       </c>
       <c r="W7" t="n">
-        <v>166.6965399472678</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2104731896973</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>73.2475687168847</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987942</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.2312029100077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.5962211436449</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>106.3434154283417</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>104.795004917596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>185.4048731212358</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.03245356584388</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.268486125805158</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.13054509253639</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>140.176011444184</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>66.43694060668928</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>28.54004930889258</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3474,16 +3474,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>35.99871774582724</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>100.1755269486889</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>90.83656612960172</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>99.98993057842257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>101.0545458193591</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>20.43112068613155</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005846</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005846</v>
+        <v>414.0172523312948</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005846</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005846</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513812</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678508</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058969</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079189</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602027</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201477</v>
+        <v>738.6222485201469</v>
       </c>
       <c r="T2" t="n">
-        <v>716.9456069335545</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="U2" t="n">
-        <v>716.9456069335545</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5258219170696</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="W2" t="n">
-        <v>338.1060369005846</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="X2" t="n">
-        <v>338.1060369005846</v>
+        <v>549.2024635036621</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005846</v>
+        <v>549.2024635036621</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>276.0998629391042</v>
+        <v>644.1614988942544</v>
       </c>
       <c r="C3" t="n">
-        <v>276.0998629391042</v>
+        <v>469.7084696131274</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>320.7740599518761</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476353</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017067</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843284</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843284</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843284</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U3" t="n">
-        <v>533.4995072678435</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678435</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W3" t="n">
-        <v>344.0797222513585</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="X3" t="n">
-        <v>276.0998629391042</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Y3" t="n">
-        <v>276.0998629391042</v>
+        <v>750.1023486652796</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.1186863856413</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="C4" t="n">
-        <v>165.1186863856413</v>
+        <v>313.0317799680345</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>162.9151405556987</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484196</v>
+        <v>100.3335179349383</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295954</v>
+        <v>285.983849229595</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242523</v>
+        <v>471.6341805242517</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608025</v>
+        <v>634.3723839608018</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652803</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="R4" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="S4" t="n">
-        <v>746.725497984628</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3057129681431</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="U4" t="n">
-        <v>367.8859279516582</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516582</v>
+        <v>746.7254979846273</v>
       </c>
       <c r="W4" t="n">
-        <v>346.767151215881</v>
+        <v>671.3877479124261</v>
       </c>
       <c r="X4" t="n">
-        <v>346.767151215881</v>
+        <v>481.9679628959414</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.767151215881</v>
+        <v>481.9679628959414</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.54878059720195</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="C5" t="n">
-        <v>47.54878059720195</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720195</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720195</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799848</v>
+        <v>40.60327984799851</v>
       </c>
       <c r="G5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874637</v>
+        <v>80.99020340874659</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>211.2396305620544</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458674</v>
+        <v>409.7273242458681</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973844</v>
+        <v>662.2525653973854</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365773</v>
+        <v>923.4777373365786</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477536</v>
+        <v>1156.809998477537</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169738</v>
+        <v>1321.452684169739</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="T5" t="n">
-        <v>1183.794237576999</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="U5" t="n">
-        <v>930.133133732667</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="V5" t="n">
-        <v>753.0637996956996</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="W5" t="n">
-        <v>400.3062901464508</v>
+        <v>1105.82130924495</v>
       </c>
       <c r="X5" t="n">
-        <v>400.3062901464508</v>
+        <v>753.0637996957005</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.3062901464508</v>
+        <v>400.3062901464512</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>746.7395089901999</v>
+        <v>333.7104077348711</v>
       </c>
       <c r="C6" t="n">
-        <v>572.2864797090729</v>
+        <v>333.7104077348711</v>
       </c>
       <c r="D6" t="n">
-        <v>423.3520700478215</v>
+        <v>333.7104077348711</v>
       </c>
       <c r="E6" t="n">
-        <v>264.114615042366</v>
+        <v>174.4729527294156</v>
       </c>
       <c r="F6" t="n">
-        <v>264.114615042366</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8778690015299</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H6" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143092</v>
+        <v>40.71784159143104</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4713373453498</v>
+        <v>140.7147764379377</v>
       </c>
       <c r="L6" t="n">
-        <v>513.2089724545685</v>
+        <v>321.4955368824505</v>
       </c>
       <c r="M6" t="n">
-        <v>743.5284611879806</v>
+        <v>551.8150256158627</v>
       </c>
       <c r="N6" t="n">
-        <v>994.3524663668854</v>
+        <v>802.6390307947677</v>
       </c>
       <c r="O6" t="n">
-        <v>1201.587633459969</v>
+        <v>1009.874197887852</v>
       </c>
       <c r="P6" t="n">
-        <v>1348.579058983953</v>
+        <v>1156.865623411836</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815025</v>
+        <v>1388.514189308348</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.254262387109</v>
+        <v>1242.848713880431</v>
       </c>
       <c r="T6" t="n">
-        <v>1150.10695424201</v>
+        <v>1171.774900453627</v>
       </c>
       <c r="U6" t="n">
-        <v>1150.10695424201</v>
+        <v>1171.774900453627</v>
       </c>
       <c r="V6" t="n">
-        <v>914.9548460102678</v>
+        <v>1171.774900453627</v>
       </c>
       <c r="W6" t="n">
-        <v>914.9548460102678</v>
+        <v>917.5375437254258</v>
       </c>
       <c r="X6" t="n">
-        <v>914.9548460102678</v>
+        <v>709.686043519893</v>
       </c>
       <c r="Y6" t="n">
-        <v>914.9548460102678</v>
+        <v>501.9257447549391</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>514.1537625781501</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="C7" t="n">
-        <v>514.1537625781501</v>
+        <v>478.6024500207146</v>
       </c>
       <c r="D7" t="n">
-        <v>514.1537625781501</v>
+        <v>328.4858106083789</v>
       </c>
       <c r="E7" t="n">
-        <v>514.1537625781501</v>
+        <v>180.5727170259857</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2638150802397</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="G7" t="n">
-        <v>367.2638150802397</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="H7" t="n">
-        <v>367.2638150802397</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="I7" t="n">
-        <v>247.911809293828</v>
+        <v>33.68276952807537</v>
       </c>
       <c r="J7" t="n">
-        <v>242.1674345220531</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="K7" t="n">
-        <v>362.7523503532218</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>572.5859612866169</v>
+        <v>358.3569215208646</v>
       </c>
       <c r="M7" t="n">
-        <v>804.2152062671805</v>
+        <v>589.9861665014284</v>
       </c>
       <c r="N7" t="n">
-        <v>1035.771441940778</v>
+        <v>821.5424021750262</v>
       </c>
       <c r="O7" t="n">
-        <v>1233.634808533639</v>
+        <v>1019.405768767887</v>
       </c>
       <c r="P7" t="n">
-        <v>1379.420418377785</v>
+        <v>1165.191378612033</v>
       </c>
       <c r="Q7" t="n">
-        <v>1396.919737815025</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1396.919737815025</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>1192.46950299635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>1192.46950299635</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>903.3266851027588</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="V7" t="n">
-        <v>903.3266851027588</v>
+        <v>1109.033044892502</v>
       </c>
       <c r="W7" t="n">
-        <v>734.9463417216803</v>
+        <v>1109.033044892502</v>
       </c>
       <c r="X7" t="n">
-        <v>734.9463417216803</v>
+        <v>881.0434939944845</v>
       </c>
       <c r="Y7" t="n">
-        <v>514.1537625781501</v>
+        <v>660.2509148509544</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.988596769088</v>
+        <v>1660.900948886693</v>
       </c>
       <c r="C8" t="n">
-        <v>1221.026079828676</v>
+        <v>1291.938431946281</v>
       </c>
       <c r="D8" t="n">
-        <v>862.7603812219259</v>
+        <v>933.6727333395304</v>
       </c>
       <c r="E8" t="n">
-        <v>476.9721286236816</v>
+        <v>547.8844807412861</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>136.8985759516785</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>125.2342297163715</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816102</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872838</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923556</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230812</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.988596769088</v>
+        <v>2047.500788950814</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>496.0729413699635</v>
+        <v>507.2413987429698</v>
       </c>
       <c r="L9" t="n">
-        <v>790.7764984014352</v>
+        <v>801.9449557744426</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.038517360655</v>
+        <v>1165.206974733664</v>
       </c>
       <c r="N9" t="n">
-        <v>1541.323645957601</v>
+        <v>1552.49210333061</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1884.562538506773</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.3498906720603</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C10" t="n">
-        <v>369.3498906720603</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>219.2332512597245</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827661</v>
+        <v>1434.833775484961</v>
       </c>
       <c r="W10" t="n">
-        <v>477.6642370458055</v>
+        <v>1145.416605448001</v>
       </c>
       <c r="X10" t="n">
-        <v>477.6642370458055</v>
+        <v>917.4270545499834</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.6642370458055</v>
+        <v>696.6344754064532</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5120,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5181,13 +5181,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000583</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8888553856862</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9526724577793</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>489.8360330454435</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>489.8360330454435</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>342.9460855475331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,52 +5746,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1501.108204237296</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5992,16 +5992,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6080,13 +6080,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3025.224490384403</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>2856.288307456496</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4526.784970301658</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>4307.1835053246</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>4018.108278668798</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>3763.423790462911</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>3474.00662042595</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>3246.017069527933</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>3025.224490384403</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6308,22 +6308,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>633.9926444679666</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.6746390389104</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.4785397537904</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.7667085959884</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6484,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6697,52 +6697,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1024.063349920562</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>855.1271669926552</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>705.0105275803195</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>557.0974339979264</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>410.207486500016</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>243.0113872148959</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.711814750802</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,22 +6952,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.7836617409695</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>816.8474788130626</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>666.7308394007268</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8177458183337</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>371.9277983204233</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>204.7316990353033</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.224705714739</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.432126571209</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,31 +7162,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168608</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.601046153951</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153951</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>4120.143748370569</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>3865.459260164681</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>3576.042090127721</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>3576.042090127721</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>3355.249510984191</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7405,28 +7405,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,34 +7639,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,16 +7681,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2383.002557118213</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2980.381044744765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3607.979008299372</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>196.5408620426154</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,13 +8139,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>74.03418926528943</v>
       </c>
       <c r="M4" t="n">
-        <v>152.8089368603741</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898929</v>
+        <v>41.92993463898918</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>27.02682919940642</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>166.6231057219254</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>193.6499349213321</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>199.7516311504062</v>
+        <v>211.0329012241487</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>59.18072286392712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>220.7351665485984</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>181.727993418995</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>66.73277020259221</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>20.61870490125435</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>84.99383243580071</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>144.165476520764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.135291226029139</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>146.346986892407</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>73.85777223953461</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>186.0089474405553</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>134.8730892594354</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743698.4196487555</v>
+        <v>743698.4196487553</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
@@ -26340,16 +26340,16 @@
         <v>706253.2747287555</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287556</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427121</v>
+        <v>178997.506142713</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731203</v>
+        <v>301519.8707731218</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245439</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267288</v>
+        <v>41617.52445267303</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019527</v>
+        <v>73739.30240019533</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.285041625399531e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806966</v>
+        <v>229588.1389806965</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.230697938</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
@@ -26444,22 +26444,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.8081118428</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029182</v>
+        <v>69851.97930029186</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207402.0027319241</v>
+        <v>-207402.0027319242</v>
       </c>
       <c r="C6" t="n">
-        <v>239973.9242075477</v>
+        <v>239973.9242075467</v>
       </c>
       <c r="D6" t="n">
-        <v>178798.6747203446</v>
+        <v>178798.6747203432</v>
       </c>
       <c r="E6" t="n">
-        <v>84038.49516845999</v>
+        <v>83691.11591410481</v>
       </c>
       <c r="F6" t="n">
-        <v>591523.9367930056</v>
+        <v>591176.5575386487</v>
       </c>
       <c r="G6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386486</v>
       </c>
       <c r="H6" t="n">
-        <v>591523.9367930056</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="I6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="J6" t="n">
-        <v>542458.992064461</v>
+        <v>542111.6128101042</v>
       </c>
       <c r="K6" t="n">
-        <v>549906.4123403329</v>
+        <v>549559.0330859756</v>
       </c>
       <c r="L6" t="n">
-        <v>517784.6343928105</v>
+        <v>517437.2551384534</v>
       </c>
       <c r="M6" t="n">
-        <v>458916.643064079</v>
+        <v>458569.263809722</v>
       </c>
       <c r="N6" t="n">
-        <v>591523.9367930052</v>
+        <v>591176.5575386487</v>
       </c>
       <c r="O6" t="n">
-        <v>591523.9367930059</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="P6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.557538649</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955708</v>
+        <v>687.6696919955713</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537563</v>
+        <v>349.2299344537567</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,10 +26804,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26943,13 +26943,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.199751082666</v>
+        <v>139.1997510826668</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219685</v>
+        <v>246.3952001219703</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241321</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874362</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462824</v>
+        <v>291.3548976462823</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874362</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462824</v>
+        <v>291.3548976462827</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874362</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462824</v>
+        <v>291.3548976462823</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>231.4395327103639</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>191.9840058854795</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038148</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510929</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>61.65174237655238</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377086</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459954</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>138.4729244843457</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.4337583055308</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378003</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713022</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.6154093681716</v>
+        <v>211.9386257651119</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271726</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972428</v>
+        <v>33.50390720972388</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27669,22 +27669,22 @@
         <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>152.4536177735371</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01103426365671112</v>
+        <v>61.05352443303661</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>20.50116622471234</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>37.00800420229689</v>
       </c>
     </row>
     <row r="6">
@@ -27697,25 +27697,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419591</v>
+        <v>38.47015094419588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>94.06692715057136</v>
+        <v>123.8396869216825</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>151.2019108882319</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>179.2165666986239</v>
       </c>
       <c r="W7" t="n">
-        <v>119.8264583893232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>62.66557255201417</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>227.7709838455206</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.60077727192956</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.54142218018313</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.0236866113794e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.356302031749414e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354052</v>
+        <v>2.764501274354053</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597844</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
         <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342074</v>
+        <v>234.6335900342075</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776145</v>
+        <v>351.6549289776147</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526273</v>
+        <v>436.2590348526276</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904212</v>
+        <v>485.4222343904215</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361797</v>
+        <v>493.27687363618</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893216</v>
+        <v>465.7873640893218</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787058</v>
+        <v>397.5387388787061</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909013</v>
+        <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751428</v>
+        <v>173.6556031751429</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934301</v>
+        <v>62.99607278934305</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848487</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483241</v>
+        <v>0.2211601019483242</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.479138582782927</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721917</v>
+        <v>50.9264819072192</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698201</v>
+        <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117051</v>
+        <v>321.1612085117053</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137586</v>
+        <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.699293072126</v>
+        <v>384.6992930721262</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536201</v>
+        <v>351.9246960536203</v>
       </c>
       <c r="P6" t="n">
-        <v>282.450594812294</v>
+        <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022556</v>
+        <v>188.8107426022557</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103118</v>
+        <v>91.83634113103123</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020038</v>
+        <v>27.4743504302004</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603107</v>
+        <v>5.961966480603111</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729779</v>
+        <v>0.09731174886729786</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319882</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871064</v>
+        <v>37.29198919871066</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261563</v>
+        <v>87.67224909261569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098917</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966486</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619611</v>
+        <v>194.3850573619612</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>175.2768585433958</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>149.9796324968701</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983757</v>
+        <v>55.75761141983761</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648375</v>
+        <v>21.61086556648376</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457675</v>
+        <v>5.298438610457678</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562998</v>
+        <v>0.06763964183563004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32472,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>431.9220107744075</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>369.1789913099997</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,25 +33028,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>537.7477759959934</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,28 +33496,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33672,10 +33672,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>640.7275049411307</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>572.8682992214865</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062405</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>86.19340501175017</v>
       </c>
       <c r="M4" t="n">
-        <v>168.9203199809857</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752112</v>
+        <v>53.58768550752126</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326339</v>
+        <v>131.5650779326342</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826401</v>
+        <v>200.4926198826404</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631484</v>
+        <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395888</v>
+        <v>263.8638100395891</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676348</v>
+        <v>235.6891526676351</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234363</v>
+        <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645181</v>
+        <v>76.22934711645198</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669739</v>
+        <v>12.90853215669748</v>
       </c>
       <c r="K6" t="n">
-        <v>128.0338340948676</v>
+        <v>101.0070048954613</v>
       </c>
       <c r="L6" t="n">
-        <v>349.2299344537563</v>
+        <v>182.6068287318311</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155677</v>
+        <v>232.645948215568</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887927</v>
+        <v>253.3575809887929</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091757</v>
+        <v>209.3284516091759</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979638</v>
+        <v>148.4761873979639</v>
       </c>
       <c r="Q6" t="n">
-        <v>48.82896851623411</v>
+        <v>242.4789034375663</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840089</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490884</v>
+        <v>233.8951875490885</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574354</v>
+        <v>199.8619864574355</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617635</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6760802396368</v>
+        <v>17.67608023963687</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>386.339127393891</v>
+        <v>397.6203974676343</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634704</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>293.3676309945333</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>226.5827468655553</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>403.7733685816631</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>498.1312604966863</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>430.2720547770421</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3112815.405667218</v>
+        <v>3114575.935970005</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>162.5831330369104</v>
       </c>
       <c r="C2" t="n">
-        <v>133.8333590606436</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>187.5255871663199</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.881441273315</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>98.49247912634598</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>74.58437257147916</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>93.25515340933693</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537567</v>
+        <v>349.2299344537581</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.538236240781</v>
+        <v>349.2299344537581</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>288.1874442843764</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>349.2299344537567</v>
+        <v>300.7256805251587</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537567</v>
+        <v>349.2299344537581</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419579</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.3214930216119</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>70.36307529253597</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>179.6297096477041</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057088</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>72.92107662520414</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>137.0708419396726</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>264.3750251656581</v>
       </c>
       <c r="H8" t="n">
-        <v>73.2475687168847</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>257.9449365697283</v>
       </c>
       <c r="V10" t="n">
-        <v>199.5962211436449</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U16" t="n">
-        <v>65.44930784064577</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>119.6760079449695</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695612</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.13054509253639</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>193.7763380130617</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>34.21058558914884</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>90.83656612960172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>101.0545458193591</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036621</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C2" t="n">
-        <v>414.0172523312948</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>224.59746731481</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
         <v>28.2321815491218</v>
@@ -4330,52 +4330,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079189</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201469</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201469</v>
+        <v>578.2426392372648</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036621</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036621</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036621</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036621</v>
+        <v>388.8228542207801</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036621</v>
+        <v>199.4030692042953</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036621</v>
+        <v>199.4030692042953</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>644.1614988942544</v>
+        <v>365.2841702477747</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>265.7968175949</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4415,46 +4415,46 @@
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652796</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="X3" t="n">
-        <v>750.1023486652796</v>
+        <v>533.4995072678428</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.1023486652796</v>
+        <v>533.4995072678428</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.9679628959414</v>
+        <v>652.5283733287313</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0317799680345</v>
+        <v>483.5921904008244</v>
       </c>
       <c r="D4" t="n">
-        <v>162.9151405556987</v>
+        <v>333.4755509884887</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
         <v>15.00204697330559</v>
@@ -4494,46 +4494,46 @@
         <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>100.3335179349383</v>
+        <v>100.3335179349382</v>
       </c>
       <c r="M4" t="n">
-        <v>285.983849229595</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242517</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608018</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652796</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846273</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="W4" t="n">
-        <v>671.3877479124261</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="X4" t="n">
-        <v>481.9679628959414</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.9679628959414</v>
+        <v>652.5283733287313</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.54878059720198</v>
+        <v>387.6414050547547</v>
       </c>
       <c r="C5" t="n">
-        <v>47.54878059720198</v>
+        <v>387.6414050547547</v>
       </c>
       <c r="D5" t="n">
-        <v>47.54878059720198</v>
+        <v>387.6414050547547</v>
       </c>
       <c r="E5" t="n">
-        <v>47.54878059720198</v>
+        <v>387.6414050547547</v>
       </c>
       <c r="F5" t="n">
-        <v>40.60327984799851</v>
+        <v>380.6959043055513</v>
       </c>
       <c r="G5" t="n">
-        <v>27.93839475630054</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="H5" t="n">
-        <v>27.93839475630054</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630054</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874659</v>
+        <v>80.99020340874705</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620544</v>
+        <v>211.2396305620554</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458681</v>
+        <v>409.72732424587</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973854</v>
+        <v>662.252565397388</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365786</v>
+        <v>923.4777373365821</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477537</v>
+        <v>1156.809998477542</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169739</v>
+        <v>1321.452684169745</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="W5" t="n">
-        <v>1105.82130924495</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="X5" t="n">
-        <v>753.0637996957005</v>
+        <v>1093.156424153256</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.3062901464512</v>
+        <v>740.3989146040053</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>333.7104077348711</v>
+        <v>372.5691460623417</v>
       </c>
       <c r="C6" t="n">
-        <v>333.7104077348711</v>
+        <v>372.5691460623417</v>
       </c>
       <c r="D6" t="n">
-        <v>333.7104077348711</v>
+        <v>372.5691460623417</v>
       </c>
       <c r="E6" t="n">
-        <v>174.4729527294156</v>
+        <v>213.3316910568862</v>
       </c>
       <c r="F6" t="n">
-        <v>27.93839475630054</v>
+        <v>66.79713308377116</v>
       </c>
       <c r="G6" t="n">
-        <v>27.93839475630054</v>
+        <v>66.79713308377116</v>
       </c>
       <c r="H6" t="n">
-        <v>27.93839475630054</v>
+        <v>66.79713308377116</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630054</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143104</v>
+        <v>40.7178415914314</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379377</v>
+        <v>332.428212010059</v>
       </c>
       <c r="L6" t="n">
-        <v>321.4955368824505</v>
+        <v>513.2089724545723</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158627</v>
+        <v>743.5284611879852</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947677</v>
+        <v>994.3524663668908</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887852</v>
+        <v>1201.587633459975</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411836</v>
+        <v>1348.57905898396</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815027</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308348</v>
+        <v>1396.919737815032</v>
       </c>
       <c r="S6" t="n">
-        <v>1242.848713880431</v>
+        <v>1251.254262387116</v>
       </c>
       <c r="T6" t="n">
-        <v>1171.774900453627</v>
+        <v>1251.254262387116</v>
       </c>
       <c r="U6" t="n">
-        <v>1171.774900453627</v>
+        <v>1251.254262387116</v>
       </c>
       <c r="V6" t="n">
-        <v>1171.774900453627</v>
+        <v>1016.102154155373</v>
       </c>
       <c r="W6" t="n">
-        <v>917.5375437254258</v>
+        <v>761.8647974271717</v>
       </c>
       <c r="X6" t="n">
-        <v>709.686043519893</v>
+        <v>554.0132972216388</v>
       </c>
       <c r="Y6" t="n">
-        <v>501.9257447549391</v>
+        <v>372.5691460623417</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>478.6024500207146</v>
+        <v>641.7942581768467</v>
       </c>
       <c r="C7" t="n">
-        <v>478.6024500207146</v>
+        <v>472.8580752489398</v>
       </c>
       <c r="D7" t="n">
-        <v>328.4858106083789</v>
+        <v>322.7414358366041</v>
       </c>
       <c r="E7" t="n">
-        <v>180.5727170259857</v>
+        <v>174.828342254211</v>
       </c>
       <c r="F7" t="n">
-        <v>33.68276952807537</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807537</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807537</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807537</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630054</v>
+        <v>27.93839475630065</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874694</v>
+        <v>148.5233105874697</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208646</v>
+        <v>358.3569215208652</v>
       </c>
       <c r="M7" t="n">
-        <v>589.9861665014284</v>
+        <v>589.9861665014294</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750262</v>
+        <v>821.5424021750273</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767887</v>
+        <v>1019.405768767889</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612033</v>
+        <v>1165.191378612035</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="R7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="S7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="T7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="U7" t="n">
-        <v>1182.690698049274</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="V7" t="n">
-        <v>1109.033044892502</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="W7" t="n">
-        <v>1109.033044892502</v>
+        <v>1182.690698049276</v>
       </c>
       <c r="X7" t="n">
-        <v>881.0434939944845</v>
+        <v>1044.235302150616</v>
       </c>
       <c r="Y7" t="n">
-        <v>660.2509148509544</v>
+        <v>823.4427230070864</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886693</v>
+        <v>1842.294639468328</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.938431946281</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395304</v>
+        <v>1115.066423921166</v>
       </c>
       <c r="E8" t="n">
-        <v>547.8844807412861</v>
+        <v>729.2781713229219</v>
       </c>
       <c r="F8" t="n">
-        <v>136.8985759516785</v>
+        <v>318.2922665333144</v>
       </c>
       <c r="G8" t="n">
-        <v>125.2342297163715</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4804,25 +4804,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816102</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872838</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923556</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764995</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950814</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057884</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429698</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744426</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733664</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.49210333061</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506773</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.9860105762135</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074502</v>
+        <v>1375.895679094974</v>
       </c>
       <c r="V10" t="n">
-        <v>1434.833775484961</v>
+        <v>1121.211190889087</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.416605448001</v>
+        <v>831.794020852126</v>
       </c>
       <c r="X10" t="n">
-        <v>917.4270545499834</v>
+        <v>603.8044699541086</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.6344754064532</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="11">
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5664,7 +5664,7 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5749,19 +5749,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5779,13 +5779,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,37 +5983,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>296.7882229101285</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D28" t="n">
-        <v>631.5645865368208</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>631.5645865368208</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.6746390389104</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.4785397537904</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.7667085959884</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>948.5505208511905</v>
       </c>
     </row>
     <row r="29">
@@ -6457,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>198.027470314254</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6955,31 +6955,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,22 +7426,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7666,31 +7666,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.829365488567</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>883.8931825606599</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>733.7765431483241</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603201</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397314</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360354</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462336</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.477830318806</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
-        <v>74.03418926528943</v>
+        <v>74.03418926528931</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898918</v>
+        <v>41.9299346389889</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.6499349213339</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213321</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241487</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>63.36835372228707</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U16" t="n">
-        <v>220.7351665485984</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>20.61870490125435</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.135291226029139</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>31.93331737597549</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>134.8730892594354</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>45.37941682721005</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738521.9829179464</v>
+        <v>738521.9829179465</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743698.4196487553</v>
+        <v>743698.4196487555</v>
       </c>
     </row>
     <row r="5">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312483</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.506142713</v>
+        <v>178997.5061427144</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731218</v>
+        <v>301519.8707731182</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267303</v>
+        <v>41617.52445267343</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019533</v>
+        <v>73739.30240019473</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806965</v>
+        <v>229588.1389806961</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.230697938</v>
+        <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184271</v>
+      </c>
+      <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.8081118428</v>
-      </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029186</v>
+        <v>69851.97930029198</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207402.0027319242</v>
+        <v>-207402.0027319241</v>
       </c>
       <c r="C6" t="n">
-        <v>239973.9242075467</v>
+        <v>239973.9242075458</v>
       </c>
       <c r="D6" t="n">
-        <v>178798.6747203432</v>
+        <v>178798.6747203469</v>
       </c>
       <c r="E6" t="n">
-        <v>83691.11591410481</v>
+        <v>84003.75724302373</v>
       </c>
       <c r="F6" t="n">
-        <v>591176.5575386487</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="G6" t="n">
-        <v>591176.5575386486</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="H6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="I6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="J6" t="n">
-        <v>542111.6128101042</v>
+        <v>542424.2541390255</v>
       </c>
       <c r="K6" t="n">
-        <v>549559.0330859756</v>
+        <v>549871.6744148969</v>
       </c>
       <c r="L6" t="n">
-        <v>517437.2551384534</v>
+        <v>517749.8964673752</v>
       </c>
       <c r="M6" t="n">
-        <v>458569.263809722</v>
+        <v>458881.9051386433</v>
       </c>
       <c r="N6" t="n">
-        <v>591176.5575386487</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="O6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="P6" t="n">
-        <v>591176.557538649</v>
+        <v>591489.1988675701</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955713</v>
+        <v>687.6696919955724</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537567</v>
+        <v>349.2299344537581</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26810,28 +26810,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826668</v>
+        <v>139.1997510826678</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219703</v>
+        <v>246.3952001219667</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874382</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462823</v>
+        <v>291.3548976462808</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874383</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462827</v>
+        <v>291.3548976462803</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.12345599961</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874368</v>
+        <v>161.7043472874382</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462823</v>
+        <v>291.3548976462808</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>220.1507086265702</v>
       </c>
       <c r="C2" t="n">
-        <v>231.4395327103639</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988688</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.65174237655238</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>74.21601986196976</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27560,7 +27560,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>211.9386257651119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271726</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>125.3294999427579</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972388</v>
+        <v>33.50390720972246</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>63.30830178702286</v>
       </c>
       <c r="H5" t="n">
-        <v>311.1628534397887</v>
+        <v>311.1628534397886</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908712</v>
+        <v>103.897454190871</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>146.0239967969023</v>
+        <v>146.0239967969022</v>
       </c>
       <c r="T5" t="n">
         <v>210.9942452356465</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>61.05352443303661</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>20.50116622471234</v>
+        <v>69.00542015331035</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.00800420229689</v>
+        <v>37.00800420229547</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27712,10 +27712,10 @@
         <v>135.8643785804277</v>
       </c>
       <c r="H6" t="n">
-        <v>97.95007950277714</v>
+        <v>97.95007950277711</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419588</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.321493021611744</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>123.8396869216825</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>26.05298612960021</v>
       </c>
     </row>
     <row r="7">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024056946</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>121.5357799573318</v>
       </c>
       <c r="S7" t="n">
         <v>202.4057324704885</v>
@@ -27833,13 +27833,13 @@
         <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>179.2165666986239</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>88.63881344936459</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>147.1726776072959</v>
       </c>
       <c r="H8" t="n">
-        <v>227.7709838455206</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>28.28221755147234</v>
       </c>
       <c r="V10" t="n">
-        <v>52.54142218018313</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.125427424920585e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-5.125427424920585e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
         <v>317.0679923244294</v>
@@ -31077,10 +31077,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31123,7 +31123,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
         <v>40.6178210959085</v>
@@ -31132,7 +31132,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
         <v>256.1509851405032</v>
@@ -31141,7 +31141,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
         <v>280.6872536292673</v>
@@ -31150,19 +31150,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354053</v>
+        <v>2.764501274354058</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597846</v>
+        <v>28.3119486759785</v>
       </c>
       <c r="I5" t="n">
-        <v>106.5784353795347</v>
+        <v>106.5784353795349</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342075</v>
+        <v>234.6335900342079</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776147</v>
+        <v>351.6549289776153</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526276</v>
+        <v>436.2590348526284</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904215</v>
+        <v>485.4222343904223</v>
       </c>
       <c r="N5" t="n">
-        <v>493.27687363618</v>
+        <v>493.2768736361808</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893218</v>
+        <v>465.7873640893226</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787061</v>
+        <v>397.5387388787067</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909015</v>
+        <v>298.535036990902</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751429</v>
+        <v>173.6556031751432</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934305</v>
+        <v>62.99607278934316</v>
       </c>
       <c r="T5" t="n">
-        <v>12.10160432848487</v>
+        <v>12.10160432848489</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483242</v>
+        <v>0.2211601019483246</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782927</v>
+        <v>1.479138582782929</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371932</v>
+        <v>14.28536473371935</v>
       </c>
       <c r="I6" t="n">
-        <v>50.9264819072192</v>
+        <v>50.92648190721928</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233642</v>
+        <v>139.7461588233644</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698203</v>
+        <v>238.8484438698207</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117053</v>
+        <v>321.1612085117058</v>
       </c>
       <c r="M6" t="n">
-        <v>374.7799821375863</v>
+        <v>374.7799821375869</v>
       </c>
       <c r="N6" t="n">
-        <v>384.6992930721262</v>
+        <v>384.6992930721269</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536203</v>
+        <v>351.9246960536209</v>
       </c>
       <c r="P6" t="n">
-        <v>282.4505948122942</v>
+        <v>282.4505948122946</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022557</v>
+        <v>188.8107426022561</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103123</v>
+        <v>91.83634113103139</v>
       </c>
       <c r="S6" t="n">
-        <v>27.4743504302004</v>
+        <v>27.47435043020045</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603111</v>
+        <v>5.961966480603121</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729786</v>
+        <v>0.09731174886729803</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319883</v>
+        <v>1.240060100319885</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920769</v>
+        <v>11.02526161920771</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871066</v>
+        <v>37.29198919871072</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261569</v>
+        <v>87.67224909261583</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098918</v>
+        <v>144.072437109892</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966488</v>
+        <v>184.363117096649</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619612</v>
+        <v>194.3850573619615</v>
       </c>
       <c r="N7" t="n">
-        <v>189.76301516986</v>
+        <v>189.7630151698603</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433958</v>
+        <v>175.2768585433961</v>
       </c>
       <c r="P7" t="n">
-        <v>149.9796324968701</v>
+        <v>149.9796324968704</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913313</v>
+        <v>103.8381234913314</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983761</v>
+        <v>55.7576114198377</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648376</v>
+        <v>21.6108655664838</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457678</v>
+        <v>5.298438610457687</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183563004</v>
+        <v>0.06763964183563015</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
         <v>117.596605360629</v>
@@ -34789,16 +34789,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>86.19340501175017</v>
+        <v>86.19340501175009</v>
       </c>
       <c r="M4" t="n">
         <v>187.5255871663199</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752126</v>
+        <v>53.58768550752166</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326342</v>
+        <v>131.5650779326347</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826404</v>
+        <v>200.4926198826411</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631488</v>
+        <v>255.0760011631496</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395891</v>
+        <v>263.8638100395899</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676351</v>
+        <v>235.6891526676359</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234366</v>
+        <v>166.3057431234372</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645198</v>
+        <v>76.22934711645249</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669748</v>
+        <v>12.90853215669773</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954613</v>
+        <v>294.6569398167956</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318311</v>
+        <v>182.6068287318316</v>
       </c>
       <c r="M6" t="n">
-        <v>232.645948215568</v>
+        <v>232.6459482155686</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887929</v>
+        <v>253.3575809887936</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091759</v>
+        <v>209.3284516091765</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979639</v>
+        <v>148.4761873979644</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375663</v>
+        <v>48.82896851623454</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840089</v>
+        <v>121.8029452840092</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569649</v>
+        <v>211.9531423569652</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238018</v>
+        <v>233.9689343238021</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490885</v>
+        <v>233.8951875490889</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574355</v>
+        <v>199.8619864574358</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617636</v>
+        <v>147.2581917617638</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.67608023963687</v>
+        <v>17.67608023963705</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676343</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
